--- a/doc/ue_client_ds_udp.xlsx
+++ b/doc/ue_client_ds_udp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6B0778-FAA7-41D5-A4E0-77A8E18D71C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA2D09F-5B0D-4A2F-8D9E-D90B73C18B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>UE的客户端和DS之间通过UDP通讯</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,6 +122,14 @@
   </si>
   <si>
     <t>由于UE已经在SendBuffer哪一层限制了UDP每次发送的最大大小，所以，对这个做压缩（例如Oddle），并不会减少丢包，仅仅优化流量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可靠和不可靠合并处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -200,6 +208,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>608171</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>94612</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AF9169C-7557-0CB1-56D7-11457DD38A17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="6391275"/>
+          <a:ext cx="11428571" cy="5104762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -487,10 +544,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE53DCA-5206-4EBD-9F84-E1D7AB238D12}">
-  <dimension ref="B4:D29"/>
+  <dimension ref="B4:D66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -531,7 +588,7 @@
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -595,9 +652,20 @@
         <v>23</v>
       </c>
     </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B66" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -620,7 +688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75972D7E-85D9-4100-A148-B2F26F03186F}">
   <dimension ref="B3:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>

--- a/doc/ue_client_ds_udp.xlsx
+++ b/doc/ue_client_ds_udp.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA2D09F-5B0D-4A2F-8D9E-D90B73C18B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A509DF26-2B14-4512-AE3C-6FF310169032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
     <sheet name="客户端" sheetId="3" r:id="rId2"/>
-    <sheet name="DS" sheetId="4" r:id="rId3"/>
-    <sheet name="关于UDP" sheetId="2" r:id="rId4"/>
+    <sheet name="客户端非可靠消息包" sheetId="5" r:id="rId3"/>
+    <sheet name="客户端可靠消息包发送" sheetId="6" r:id="rId4"/>
+    <sheet name="DS" sheetId="4" r:id="rId5"/>
+    <sheet name="关于UDP" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>UE的客户端和DS之间通过UDP通讯</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,6 +132,48 @@
   </si>
   <si>
     <t>可靠和不可靠合并处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非可靠的消息，在每次一次性的就发送了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！这里的发送只是写入到底层的SendBuffer，在Tick的时候一次行Send出去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于可靠的消息，先会插入到可靠的队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class FInBunch*</t>
+  </si>
+  <si>
+    <t>InRec;</t>
+  </si>
+  <si>
+    <t>// Incoming data with queued dependencies.</t>
+  </si>
+  <si>
+    <t>class FOutBunch*</t>
+  </si>
+  <si>
+    <t>OutRec;</t>
+  </si>
+  <si>
+    <t>// Outgoing reliable unacked data.</t>
+  </si>
+  <si>
+    <t>！！！可靠消息的发送队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后发送一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复发送方法：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -546,7 +590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE53DCA-5206-4EBD-9F84-E1D7AB238D12}">
   <dimension ref="B4:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
@@ -670,6 +714,97 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E12DDE-178B-42E9-A43E-4DC35943B0D7}">
+  <dimension ref="B5:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E988C6A3-A836-4D6F-980E-10EEBF817FB3}">
+  <dimension ref="B5:O16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B582CB-1FD4-4FEE-AC11-EAE8C7C4EC86}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -684,7 +819,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75972D7E-85D9-4100-A148-B2F26F03186F}">
   <dimension ref="B3:N11"/>
   <sheetViews>

--- a/doc/ue_client_ds_udp.xlsx
+++ b/doc/ue_client_ds_udp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A509DF26-2B14-4512-AE3C-6FF310169032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE1CAB5-C8AB-4395-A848-DC1BFA5CC165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="客户端可靠消息包发送" sheetId="6" r:id="rId4"/>
     <sheet name="DS" sheetId="4" r:id="rId5"/>
     <sheet name="关于UDP" sheetId="2" r:id="rId6"/>
+    <sheet name="客户端网络异常处理" sheetId="7" r:id="rId7"/>
+    <sheet name="DS网络异常处理" sheetId="8" r:id="rId8"/>
+    <sheet name="ICMP" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="78">
   <si>
     <t>UE的客户端和DS之间通过UDP通讯</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -174,6 +177,133 @@
   </si>
   <si>
     <t>重复发送方法：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIpConnection在发送失败的时候有特殊的处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UIpConnection::HandleSocketRecvError(class UNetDriver* NetDriver, const FString&amp; ErrorString)</t>
+  </si>
+  <si>
+    <t>收消息包发生错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发消息包发生错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UIpConnection::HandleSocketSendResult(const FSocketSendResult&amp; Result, ISocketSubsystem* SocketSubsystem)</t>
+  </si>
+  <si>
+    <t>！！！这个里面没有进行RESET的判断，当网络不可用的时候会出错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** Instead of disconnecting immediately on a socket error, wait for some time to see if we can recover. Specified in Seconds. */</t>
+  </si>
+  <si>
+    <t>UPROPERTY(Config)</t>
+  </si>
+  <si>
+    <t>float SocketErrorDisconnectDelay;</t>
+  </si>
+  <si>
+    <t>支持重连操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool CanContinueResolution() const {</t>
+  </si>
+  <si>
+    <t>return CurrentAddressIndex &lt; ResolverResults.Num() &amp;&amp; IsAddressResolutionEnabled() &amp;&amp;</t>
+  </si>
+  <si>
+    <t>ResolutionState != EAddressResolutionState::Error &amp;&amp; ResolutionState != EAddressResolutionState::Done;</t>
+  </si>
+  <si>
+    <t>可以设置重新建立链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果DS将当前Connect关闭的话，在怎么重连都是不行的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以，客户端需要支持断开的操作，重新ChangeScene进可以重连</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接的关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UNetConnection::Close(FNetResult&amp;&amp; CloseReason)</t>
+  </si>
+  <si>
+    <t>如果底层关闭了上层是没有回调的，只能不断的轮训检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置了状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetConnectionState(EConnectionState::USOCK_Closed);</t>
+  </si>
+  <si>
+    <t>void UNetConnection::DestroyOwningActor()</t>
+  </si>
+  <si>
+    <t>回调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Cleanup/Destroy the connection actor &amp; controller</t>
+  </si>
+  <si>
+    <t>if (!OwningActor-&gt;HasAnyFlags(RF_BeginDestroyed | RF_FinishDestroyed))</t>
+  </si>
+  <si>
+    <t>// UNetConnection::CleanUp can be called from UNetDriver::FinishDestroyed that is called from GC.</t>
+  </si>
+  <si>
+    <t>OwningActor-&gt;OnNetCleanup(this);</t>
+  </si>
+  <si>
+    <t>void UNetConnection::CleanUp()</t>
+  </si>
+  <si>
+    <t>DestroyOwningActor();</t>
+  </si>
+  <si>
+    <t>依赖心跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还是得依赖心跳，当多长时间未收到客户端消息后，需要判断是不是断开了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！DS自己判断是否销毁对应的玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般MMO是需要将玩家踢掉的；别人就看不到了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！需要注意，服务器ICMP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -181,7 +311,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +342,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -233,10 +373,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -747,7 +888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E988C6A3-A836-4D6F-980E-10EEBF817FB3}">
   <dimension ref="B5:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -864,4 +1005,241 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA1DED1-DF84-4367-A640-530A871D4FB0}">
+  <dimension ref="B5:R33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C28" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050165BD-C80E-4C59-A39C-07AE9A74F6E9}">
+  <dimension ref="B3:P26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D5" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D7" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D15" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6356E4A1-6777-433B-B3C6-7F0CC010B69D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>